--- a/Stats/Monthly_Stats/2013/Jan_2013.xlsx
+++ b/Stats/Monthly_Stats/2013/Jan_2013.xlsx
@@ -2033,7 +2033,7 @@
         <v>65</v>
       </c>
       <c r="AA15">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AB15">
         <v>1.5</v>
@@ -3597,7 +3597,7 @@
         <v>27</v>
       </c>
       <c r="AA32">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB32">
         <v>17</v>
